--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.0051758904736</v>
+        <v>57.319636</v>
       </c>
       <c r="H2">
-        <v>55.0051758904736</v>
+        <v>171.958908</v>
       </c>
       <c r="I2">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="J2">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>7792.570031715241</v>
+        <v>8800.227388984356</v>
       </c>
       <c r="R2">
-        <v>7792.570031715241</v>
+        <v>79202.04650085921</v>
       </c>
       <c r="S2">
-        <v>0.1845974507604688</v>
+        <v>0.1737411894704793</v>
       </c>
       <c r="T2">
-        <v>0.1845974507604688</v>
+        <v>0.1737411894704793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.0051758904736</v>
+        <v>57.319636</v>
       </c>
       <c r="H3">
-        <v>55.0051758904736</v>
+        <v>171.958908</v>
       </c>
       <c r="I3">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="J3">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>9274.868895566564</v>
+        <v>9675.537513761565</v>
       </c>
       <c r="R3">
-        <v>9274.868895566564</v>
+        <v>87079.83762385408</v>
       </c>
       <c r="S3">
-        <v>0.2197114876466878</v>
+        <v>0.1910222681872302</v>
       </c>
       <c r="T3">
-        <v>0.2197114876466878</v>
+        <v>0.1910222681872302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.0051758904736</v>
+        <v>57.319636</v>
       </c>
       <c r="H4">
-        <v>55.0051758904736</v>
+        <v>171.958908</v>
       </c>
       <c r="I4">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="J4">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>3387.966468341791</v>
+        <v>3902.912548588974</v>
       </c>
       <c r="R4">
-        <v>3387.966468341791</v>
+        <v>35126.21293730076</v>
       </c>
       <c r="S4">
-        <v>0.08025721562622683</v>
+        <v>0.07705444855208086</v>
       </c>
       <c r="T4">
-        <v>0.08025721562622683</v>
+        <v>0.07705444855208088</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.0051758904736</v>
+        <v>57.319636</v>
       </c>
       <c r="H5">
-        <v>55.0051758904736</v>
+        <v>171.958908</v>
       </c>
       <c r="I5">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="J5">
-        <v>0.5890442543440267</v>
+        <v>0.5476981520382651</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>4410.42338394852</v>
+        <v>5362.978359547028</v>
       </c>
       <c r="R5">
-        <v>4410.42338394852</v>
+        <v>48266.80523592325</v>
       </c>
       <c r="S5">
-        <v>0.1044781003106433</v>
+        <v>0.1058802458284748</v>
       </c>
       <c r="T5">
-        <v>0.1044781003106433</v>
+        <v>0.1058802458284748</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.95852678880209</v>
+        <v>5.975184333333334</v>
       </c>
       <c r="H6">
-        <v>5.95852678880209</v>
+        <v>17.925553</v>
       </c>
       <c r="I6">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="J6">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>844.1430562834227</v>
+        <v>917.3641790821951</v>
       </c>
       <c r="R6">
-        <v>844.1430562834227</v>
+        <v>8256.277611739755</v>
       </c>
       <c r="S6">
-        <v>0.01999682462048678</v>
+        <v>0.01811134378764559</v>
       </c>
       <c r="T6">
-        <v>0.01999682462048678</v>
+        <v>0.01811134378764559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.95852678880209</v>
+        <v>5.975184333333334</v>
       </c>
       <c r="H7">
-        <v>5.95852678880209</v>
+        <v>17.925553</v>
       </c>
       <c r="I7">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="J7">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>1004.715535987077</v>
+        <v>1008.609338845192</v>
       </c>
       <c r="R7">
-        <v>1004.715535987077</v>
+        <v>9077.484049606726</v>
       </c>
       <c r="S7">
-        <v>0.02380061082900897</v>
+        <v>0.01991277935174145</v>
       </c>
       <c r="T7">
-        <v>0.02380061082900897</v>
+        <v>0.01991277935174145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.95852678880209</v>
+        <v>5.975184333333334</v>
       </c>
       <c r="H8">
-        <v>5.95852678880209</v>
+        <v>17.925553</v>
       </c>
       <c r="I8">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="J8">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>367.0070795042041</v>
+        <v>406.8522332329345</v>
       </c>
       <c r="R8">
-        <v>367.0070795042041</v>
+        <v>3661.67009909641</v>
       </c>
       <c r="S8">
-        <v>0.008693995820607144</v>
+        <v>0.00803240505229365</v>
       </c>
       <c r="T8">
-        <v>0.008693995820607144</v>
+        <v>0.008032405052293651</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.95852678880209</v>
+        <v>5.975184333333334</v>
       </c>
       <c r="H9">
-        <v>5.95852678880209</v>
+        <v>17.925553</v>
       </c>
       <c r="I9">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="J9">
-        <v>0.06380919454357581</v>
+        <v>0.05709382762749331</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>477.7664184829526</v>
+        <v>559.0542178943897</v>
       </c>
       <c r="R9">
-        <v>477.7664184829526</v>
+        <v>5031.487961049507</v>
       </c>
       <c r="S9">
-        <v>0.01131776327347291</v>
+        <v>0.01103729943581262</v>
       </c>
       <c r="T9">
-        <v>0.01131776327347291</v>
+        <v>0.01103729943581262</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.9192973812105</v>
+        <v>32.32302533333333</v>
       </c>
       <c r="H10">
-        <v>26.9192973812105</v>
+        <v>96.969076</v>
       </c>
       <c r="I10">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="J10">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>3813.650382017629</v>
+        <v>4962.522316667105</v>
       </c>
       <c r="R10">
-        <v>3813.650382017629</v>
+        <v>44662.70085000395</v>
       </c>
       <c r="S10">
-        <v>0.09034120139401371</v>
+        <v>0.0979741195268192</v>
       </c>
       <c r="T10">
-        <v>0.09034120139401371</v>
+        <v>0.09797411952681921</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.9192973812105</v>
+        <v>32.32302533333333</v>
       </c>
       <c r="H11">
-        <v>26.9192973812105</v>
+        <v>96.969076</v>
       </c>
       <c r="I11">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="J11">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>4539.081094270928</v>
+        <v>5456.117065553802</v>
       </c>
       <c r="R11">
-        <v>4539.081094270928</v>
+        <v>49105.05358998421</v>
       </c>
       <c r="S11">
-        <v>0.1075258605809436</v>
+        <v>0.1077190653103002</v>
       </c>
       <c r="T11">
-        <v>0.1075258605809436</v>
+        <v>0.1077190653103002</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.9192973812105</v>
+        <v>32.32302533333333</v>
       </c>
       <c r="H12">
-        <v>26.9192973812105</v>
+        <v>96.969076</v>
       </c>
       <c r="I12">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="J12">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>1658.056272021802</v>
+        <v>2200.885246058191</v>
       </c>
       <c r="R12">
-        <v>1658.056272021802</v>
+        <v>19807.96721452372</v>
       </c>
       <c r="S12">
-        <v>0.03927753742179212</v>
+        <v>0.04345165228535191</v>
       </c>
       <c r="T12">
-        <v>0.03927753742179212</v>
+        <v>0.04345165228535192</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.9192973812105</v>
+        <v>32.32302533333333</v>
       </c>
       <c r="H13">
-        <v>26.9192973812105</v>
+        <v>96.969076</v>
       </c>
       <c r="I13">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="J13">
-        <v>0.2882757339955435</v>
+        <v>0.3088515991858827</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>2158.442305247081</v>
+        <v>3024.228649633383</v>
       </c>
       <c r="R13">
-        <v>2158.442305247081</v>
+        <v>27218.05784670045</v>
       </c>
       <c r="S13">
-        <v>0.05113113459879404</v>
+        <v>0.05970676206341142</v>
       </c>
       <c r="T13">
-        <v>0.05113113459879404</v>
+        <v>0.05970676206341142</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.49737923160728</v>
+        <v>9.037676333333334</v>
       </c>
       <c r="H14">
-        <v>5.49737923160728</v>
+        <v>27.113029</v>
       </c>
       <c r="I14">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835883</v>
       </c>
       <c r="J14">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835884</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>778.8123928282162</v>
+        <v>1387.54556643339</v>
       </c>
       <c r="R14">
-        <v>778.8123928282162</v>
+        <v>12487.91009790051</v>
       </c>
       <c r="S14">
-        <v>0.01844921274388659</v>
+        <v>0.02739404409690482</v>
       </c>
       <c r="T14">
-        <v>0.01844921274388659</v>
+        <v>0.02739404409690483</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.49737923160728</v>
+        <v>9.037676333333334</v>
       </c>
       <c r="H15">
-        <v>5.49737923160728</v>
+        <v>27.113029</v>
       </c>
       <c r="I15">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835883</v>
       </c>
       <c r="J15">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835884</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>926.9577056510885</v>
+        <v>1525.557077864237</v>
       </c>
       <c r="R15">
-        <v>926.9577056510885</v>
+        <v>13730.01370077813</v>
       </c>
       <c r="S15">
-        <v>0.02195861297743123</v>
+        <v>0.03011877870849325</v>
       </c>
       <c r="T15">
-        <v>0.02195861297743123</v>
+        <v>0.03011877870849325</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.49737923160728</v>
+        <v>9.037676333333334</v>
       </c>
       <c r="H16">
-        <v>5.49737923160728</v>
+        <v>27.113029</v>
       </c>
       <c r="I16">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835883</v>
       </c>
       <c r="J16">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835884</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>338.6033441203793</v>
+        <v>615.3783037186811</v>
       </c>
       <c r="R16">
-        <v>338.6033441203793</v>
+        <v>5538.40473346813</v>
       </c>
       <c r="S16">
-        <v>0.008021142433009823</v>
+        <v>0.01214929498256395</v>
       </c>
       <c r="T16">
-        <v>0.008021142433009823</v>
+        <v>0.01214929498256396</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.49737923160728</v>
+        <v>9.037676333333334</v>
       </c>
       <c r="H17">
-        <v>5.49737923160728</v>
+        <v>27.113029</v>
       </c>
       <c r="I17">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835883</v>
       </c>
       <c r="J17">
-        <v>0.05887081711685383</v>
+        <v>0.08635642114835884</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>440.7906987115524</v>
+        <v>845.5891554555058</v>
       </c>
       <c r="R17">
-        <v>440.7906987115524</v>
+        <v>7610.302399099552</v>
       </c>
       <c r="S17">
-        <v>0.01044184896252619</v>
+        <v>0.01669430336039681</v>
       </c>
       <c r="T17">
-        <v>0.01044184896252619</v>
+        <v>0.01669430336039681</v>
       </c>
     </row>
   </sheetData>
